--- a/backend/uploads/New.xlsx
+++ b/backend/uploads/New.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/usr/local/var/www/aarhoi/Aarohi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C722866C-3D0E-AD4F-9BD9-98B3E4558760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230512B9-E963-9F43-A102-16840B7AFFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{2F97A116-877F-6249-BAC5-B197CF3ECC91}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{2F97A116-877F-6249-BAC5-B197CF3ECC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
-    <sheet name="LoopBackAdapter" sheetId="2" r:id="rId2"/>
-    <sheet name="Vlan" sheetId="3" r:id="rId3"/>
-    <sheet name="PortChannel" sheetId="4" r:id="rId4"/>
-    <sheet name="MCLag" sheetId="5" r:id="rId5"/>
-    <sheet name="Ethernet" sheetId="6" r:id="rId6"/>
-    <sheet name="NTP" sheetId="8" r:id="rId7"/>
-    <sheet name="SNMP" sheetId="14" r:id="rId8"/>
-    <sheet name="LoggingServer" sheetId="9" r:id="rId9"/>
-    <sheet name="AAA" sheetId="12" r:id="rId10"/>
-    <sheet name="TacAcs" sheetId="13" r:id="rId11"/>
-    <sheet name="Users" sheetId="10" r:id="rId12"/>
-    <sheet name="SFlow" sheetId="11" r:id="rId13"/>
+    <sheet name="PortGroup" sheetId="15" r:id="rId2"/>
+    <sheet name="LoopBackAdapter" sheetId="2" r:id="rId3"/>
+    <sheet name="Vlan" sheetId="3" r:id="rId4"/>
+    <sheet name="PortChannel" sheetId="4" r:id="rId5"/>
+    <sheet name="MCLag" sheetId="5" r:id="rId6"/>
+    <sheet name="Ethernet" sheetId="6" r:id="rId7"/>
+    <sheet name="NTP" sheetId="8" r:id="rId8"/>
+    <sheet name="SNMP" sheetId="14" r:id="rId9"/>
+    <sheet name="LoggingServer" sheetId="9" r:id="rId10"/>
+    <sheet name="AAA" sheetId="12" r:id="rId11"/>
+    <sheet name="TacAcs" sheetId="13" r:id="rId12"/>
+    <sheet name="Users" sheetId="10" r:id="rId13"/>
+    <sheet name="SFlow" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>HostName*</t>
   </si>
@@ -255,6 +256,12 @@
   </si>
   <si>
     <t>Traps</t>
+  </si>
+  <si>
+    <t>Port Group</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
@@ -739,6 +746,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1372F-0E9B-2048-95BD-45C1713FBD4B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4667CAA-1244-C64C-AD5C-9EB4FAD9A788}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -775,7 +810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55C9FD0-BD0F-2543-A937-EA2DF53C838C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -837,7 +872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804CEA3B-6B1B-1C49-A714-EF54082E24A4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -871,12 +906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496AFF29-E2AE-1642-B43D-98F9A6702766}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -911,6 +946,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E8D61-04CB-AE4F-B596-1E356B2CF288}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4796853-FD1D-8643-AA9E-B6D343EE511B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -950,12 +1011,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD42F48-504D-A54F-B582-B69F37A93D28}">
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -1045,12 +1106,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D57443-50B6-B14D-89E5-7A1E213AAD4D}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C3CCB-131C-694D-B107-3237C21DE9C3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1211,7 +1272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8326F7-2F8F-0A4F-936C-BF37BD79B92E}">
   <dimension ref="A1:L57"/>
   <sheetViews>
@@ -1455,7 +1516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF23EB95-FE3A-2B4E-86E1-8740F8550A2C}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1486,12 +1547,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A911B3B6-2DB8-8446-B768-998C6103E87F}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1591,32 +1652,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1372F-0E9B-2048-95BD-45C1713FBD4B}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>